--- a/5.Pruebas/5.3 Casos de prueba.xlsx
+++ b/5.Pruebas/5.3 Casos de prueba.xlsx
@@ -2066,16 +2066,16 @@
     <mergeCell ref="A39:E39"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A79:E79"/>
+    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A83:E83"/>
     <mergeCell ref="A87:E87"/>
-    <mergeCell ref="A51:E51"/>
     <mergeCell ref="A55:E55"/>
     <mergeCell ref="A59:E59"/>
     <mergeCell ref="A63:E63"/>
     <mergeCell ref="A67:E67"/>
     <mergeCell ref="A71:E71"/>
     <mergeCell ref="A75:E75"/>
+    <mergeCell ref="A79:E79"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
